--- a/bond_tests.xlsx
+++ b/bond_tests.xlsx
@@ -52,7 +52,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -113,7 +113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:D19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,11 +483,211 @@
         <v>99.914000000000001</v>
       </c>
       <c r="F2" s="1">
-        <v>43286</v>
+        <v>43290</v>
       </c>
       <c r="G2" s="3">
         <f>YIELD(F2,B2,C2,E2,100,2,1)</f>
-        <v>2.5445639834604513E-2</v>
+        <v>2.5447204117284523E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.375E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43358</v>
+      </c>
+      <c r="E3">
+        <v>97.406000000000006</v>
+      </c>
+      <c r="F3" s="1">
+        <f>F2</f>
+        <v>43290</v>
+      </c>
+      <c r="G3" s="3">
+        <f>YIELD(F3,B3,C3,E3,100,2,1)</f>
+        <v>2.6036108088948101E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43327</v>
+      </c>
+      <c r="E4">
+        <v>97.811999999999998</v>
+      </c>
+      <c r="F4" s="1">
+        <f>F3</f>
+        <v>43290</v>
+      </c>
+      <c r="G4" s="3">
+        <f>YIELD(F4,B4,C4,E4,100,2,1)</f>
+        <v>2.5755416168511295E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44027</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43296</v>
+      </c>
+      <c r="E5">
+        <v>97.906000000000006</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F10" si="0">F4</f>
+        <v>43290</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" ref="G5:G10" si="1">YIELD(F5,B5,C5,E5,100,2,1)</f>
+        <v>2.5721403654834985E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43997</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>43266</v>
+      </c>
+      <c r="E6">
+        <v>98</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>43290</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5660988430621503E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44104</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.375E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43373</v>
+      </c>
+      <c r="E7">
+        <v>97.375</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>43290</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5953455363561615E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.375E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43343</v>
+      </c>
+      <c r="E8">
+        <v>97.468999999999994</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>43290</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5958504176847023E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>44043</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.6250000000000001E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43312</v>
+      </c>
+      <c r="E9">
+        <v>98.093999999999994</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>43290</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5803774185541764E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>44012</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.6250000000000001E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43281</v>
+      </c>
+      <c r="E10">
+        <v>98.188000000000002</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>43290</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5714674747704558E-2</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -502,5 +702,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>